--- a/接口测试/接口测试用例.xlsx
+++ b/接口测试/接口测试用例.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB61B277-D941-4873-B42D-C4AC496D81C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852F3F1-97CE-4FA2-9D0F-E0BD7B67DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="521" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="521" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户相关接口" sheetId="3" r:id="rId1"/>
     <sheet name="排班相关接口" sheetId="6" r:id="rId2"/>
+    <sheet name="会话相关接口" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -140,6 +141,11 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -212,40 +218,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,61 +574,61 @@
       <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5390625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5390625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.45703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -632,7 +638,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -643,11 +649,11 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="21.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -658,1323 +664,1325 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
-      <c r="D67" s="12"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
-      <c r="D70" s="12"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
-      <c r="D71" s="12"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
-      <c r="D72" s="12"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
-      <c r="D73" s="12"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
-      <c r="D74" s="12"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
-      <c r="D75" s="12"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
-      <c r="D76" s="12"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
-      <c r="D79" s="12"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
-      <c r="D80" s="12"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
-      <c r="D85" s="12"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
-      <c r="D86" s="12"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
-      <c r="D88" s="12"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
-      <c r="D92" s="12"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
-      <c r="D93" s="12"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
-      <c r="D94" s="12"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
-      <c r="D95" s="12"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
-      <c r="D96" s="12"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
-      <c r="D97" s="12"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
-      <c r="D98" s="12"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
-      <c r="D99" s="12"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
-      <c r="D100" s="12"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
-      <c r="D101" s="12"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
-      <c r="D102" s="12"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
-      <c r="D103" s="12"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
-      <c r="D105" s="12"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
-      <c r="D106" s="12"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
-      <c r="D107" s="12"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
-      <c r="D108" s="12"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
-      <c r="D109" s="12"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
-      <c r="D110" s="12"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
-      <c r="D111" s="12"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
-      <c r="D112" s="12"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
-      <c r="D113" s="12"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
-      <c r="D114" s="12"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
-      <c r="D115" s="12"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
-      <c r="D116" s="12"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
-      <c r="D117" s="12"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
-      <c r="D118" s="12"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
-      <c r="D119" s="12"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
-      <c r="D120" s="12"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
-      <c r="D121" s="12"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
-      <c r="D124" s="12"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
-      <c r="D125" s="12"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
-      <c r="D126" s="12"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
-      <c r="D127" s="12"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
-      <c r="D128" s="12"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
-      <c r="D129" s="12"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
-      <c r="D131" s="12"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
-      <c r="D132" s="12"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
-      <c r="D133" s="12"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
-      <c r="D134" s="12"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
-      <c r="D135" s="12"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
-      <c r="D136" s="12"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
-      <c r="D137" s="12"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
-      <c r="D138" s="12"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
-      <c r="D139" s="12"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
-      <c r="D140" s="12"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
-      <c r="D141" s="12"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
-      <c r="D142" s="12"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
-      <c r="D143" s="12"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
-      <c r="D144" s="12"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
-      <c r="D145" s="12"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
-      <c r="D146" s="12"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
-      <c r="D147" s="12"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
-      <c r="D148" s="12"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
-      <c r="D149" s="12"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
-      <c r="D150" s="12"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
-      <c r="D151" s="12"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -1982,8 +1990,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1995,25 +2001,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA82B63-2986-48A8-89A5-D2A04611EB26}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.45703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.70703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.2890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.45703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -2023,38 +2029,38 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2063,7 +2069,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2072,7 +2078,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2081,7 +2087,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2090,7 +2096,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2099,7 +2105,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2108,7 +2114,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2117,7 +2123,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2126,7 +2132,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2135,7 +2141,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2144,7 +2150,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2153,7 +2159,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2162,7 +2168,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2171,7 +2177,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2180,7 +2186,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2189,7 +2195,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2198,7 +2204,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2207,7 +2213,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2216,7 +2222,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2225,7 +2231,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2234,7 +2240,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2243,7 +2249,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2252,7 +2258,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2261,7 +2267,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2270,7 +2276,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2279,7 +2285,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2288,7 +2294,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2297,7 +2303,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2306,7 +2312,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2315,7 +2321,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2324,7 +2330,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2333,7 +2339,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2342,7 +2348,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2351,7 +2357,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2360,7 +2366,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2369,7 +2375,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2378,7 +2384,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2387,7 +2393,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2396,7 +2402,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2405,7 +2411,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2414,7 +2420,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2423,7 +2429,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2432,7 +2438,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2441,7 +2447,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2450,7 +2456,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2459,7 +2465,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2468,7 +2474,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2477,7 +2483,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2486,7 +2492,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2495,7 +2501,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2504,7 +2510,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2513,7 +2519,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2522,7 +2528,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2531,7 +2537,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2540,7 +2546,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2549,7 +2555,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2558,7 +2564,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2567,7 +2573,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2576,7 +2582,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2585,7 +2591,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2594,7 +2600,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2603,7 +2609,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2612,7 +2618,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2621,7 +2627,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2630,7 +2636,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2639,7 +2645,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2648,7 +2654,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2657,7 +2663,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2666,7 +2672,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2675,7 +2681,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2684,7 +2690,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2693,7 +2699,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2702,7 +2708,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2711,7 +2717,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2720,7 +2726,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2729,7 +2735,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2738,7 +2744,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2747,7 +2753,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2756,7 +2762,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2765,7 +2771,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2774,7 +2780,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2783,7 +2789,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2792,7 +2798,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2801,7 +2807,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2810,7 +2816,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2819,7 +2825,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2828,7 +2834,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2837,7 +2843,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2846,7 +2852,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2855,7 +2861,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2864,7 +2870,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2873,7 +2879,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2882,7 +2888,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2891,7 +2897,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2900,7 +2906,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2909,7 +2915,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2918,7 +2924,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2927,7 +2933,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2936,7 +2942,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2945,7 +2951,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2954,7 +2960,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2963,7 +2969,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2972,7 +2978,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2981,7 +2987,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2990,7 +2996,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2999,7 +3005,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3008,7 +3014,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3017,7 +3023,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3026,7 +3032,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3035,7 +3041,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3044,7 +3050,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3053,7 +3059,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3062,7 +3068,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3071,7 +3077,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3080,7 +3086,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3089,7 +3095,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3098,7 +3104,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3107,7 +3113,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3116,7 +3122,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3125,7 +3131,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3134,7 +3140,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3143,7 +3149,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3152,7 +3158,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3161,7 +3167,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3170,7 +3176,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3179,7 +3185,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3188,7 +3194,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3197,7 +3203,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3206,7 +3212,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3215,7 +3221,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3224,7 +3230,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3233,7 +3239,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3242,7 +3248,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3251,7 +3257,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3260,7 +3266,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3269,7 +3275,7 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3278,7 +3284,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3287,7 +3293,7 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3296,7 +3302,7 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3305,7 +3311,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3314,7 +3320,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3323,7 +3329,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3332,7 +3338,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3341,7 +3347,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3350,7 +3356,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3359,28 +3365,28 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3403,4 +3409,1417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2356D09-7F35-478E-B35F-81067325F71E}">
+  <dimension ref="A1:I151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>